--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4082604.487914938</v>
+        <v>4080724.30814461</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>314.6757550035595</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>195.7571515107716</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>127.8819313525579</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612862</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>163.9206648785251</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544548</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>64.34190763938365</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>127.7178027211461</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701343</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>5.107731335945062</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.41761368552062</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>156.4447884716831</v>
       </c>
       <c r="T19" t="n">
         <v>210.5069097326778</v>
@@ -2062,13 +2062,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>35.72089146414794</v>
       </c>
       <c r="F22" t="n">
-        <v>70.41761368552096</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>210.5069097326778</v>
@@ -2296,7 +2296,7 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
@@ -2305,7 +2305,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.41761368552132</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>50.76960534990758</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S25" t="n">
         <v>186.8801586578918</v>
@@ -2539,7 +2539,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.84698023557801</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.0703127320039</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
         <v>241.0969919981166</v>
@@ -2776,10 +2776,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552048</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S31" t="n">
         <v>186.8801586578918</v>
@@ -3010,10 +3010,10 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>136.6477650525025</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896902</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>530.3944877309076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>530.3944877309076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.3944877309076</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2512.946733515829</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2512.946733515829</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2512.946733515829</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2512.946733515829</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.480975254749</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416162</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>240.3883158012044</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>240.3883158012044</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.09000478155</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057379</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,22 +5051,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1322.84934122136</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1322.84934122136</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.84934122136</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.84934122136</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.84934122136</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.84934122136</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5255,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>229.0333923118344</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845919</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1493.756945976139</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1269.971530765645</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>980.8428919792032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>726.1584037733163</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>436.7412337363557</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K19" t="n">
-        <v>281.645677793716</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P19" t="n">
         <v>1536.594541272927</v>
@@ -5698,25 +5698,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1428.333190197251</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1215.699948043031</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449756</v>
+        <v>937.7234823128632</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953629</v>
+        <v>694.1911671632505</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146764</v>
+        <v>694.1911671632505</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729332</v>
+        <v>477.3537893215073</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729332</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,49 +5747,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729329</v>
+        <v>291.082809881563</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729329</v>
+        <v>133.2988000099303</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729329</v>
+        <v>133.2988000099303</v>
       </c>
       <c r="E22" t="n">
-        <v>168.3459941729329</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>120.53002873665</v>
@@ -5917,7 +5917,7 @@
         <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1273.802056521416</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449753</v>
+        <v>995.8255907912487</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953626</v>
+        <v>995.8255907912487</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146761</v>
+        <v>717.5605938105622</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729329</v>
+        <v>500.723215968819</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729329</v>
+        <v>291.082809881563</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6072,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>285.2604416327761</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028587</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5300287366504</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937162</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172998</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
         <v>1536.594541272927</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875144</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449761</v>
+        <v>807.0577537630753</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953634</v>
+        <v>563.5254386134626</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146769</v>
+        <v>285.2604416327761</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729337</v>
+        <v>285.2604416327761</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729337</v>
+        <v>285.2604416327761</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365143</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>371.9193322579836</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>371.9193322579836</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>120.5300287366501</v>
       </c>
       <c r="K28" t="n">
-        <v>281.645677793716</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172996</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1530.957238920589</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029364</v>
+        <v>1342.189401892416</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1342.189401892416</v>
       </c>
       <c r="U28" t="n">
-        <v>1045.492187519584</v>
+        <v>1064.212936162248</v>
       </c>
       <c r="V28" t="n">
-        <v>801.9598723699712</v>
+        <v>820.6806210126356</v>
       </c>
       <c r="W28" t="n">
-        <v>523.6948753892849</v>
+        <v>542.4156240319492</v>
       </c>
       <c r="X28" t="n">
-        <v>306.8574975475418</v>
+        <v>542.4156240319492</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.4156240319492</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>709.4934589365146</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729328</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028587</v>
@@ -6619,16 +6619,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449752</v>
+        <v>807.0577537630752</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953624</v>
+        <v>563.5254386134625</v>
       </c>
       <c r="W31" t="n">
-        <v>385.183372014676</v>
+        <v>425.4973931058842</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729328</v>
+        <v>425.4973931058842</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729328</v>
+        <v>425.4973931058842</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514103</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6838,16 +6838,16 @@
         <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,22 +6856,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010313</v>
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,49 +6932,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>709.4934589365146</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880509</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,19 +7187,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7421,25 +7421,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571605</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636243</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307618</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526315</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,34 +7564,34 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277967</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7783,16 +7783,16 @@
         <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010313</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>253.7371603504729</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>91.23759968302116</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305351</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>286.5092576192341</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>28.12263706263008</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498455</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>176.717654749846</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711669</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>20.63789864135413</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>176.717654749846</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>32.92248665775594</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776768</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445223</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>148.2747143566552</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.5789023442196</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>158.8051956154449</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>192.8130786476582</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>156.2061697729164</v>
@@ -23899,7 +23899,7 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F19" t="n">
-        <v>63.9627830116992</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
@@ -23908,7 +23908,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>30.43537018620869</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>99.67241985670981</v>
       </c>
       <c r="F22" t="n">
-        <v>63.96278301169887</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.37371517070453</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>105.4365644230088</v>
       </c>
       <c r="D25" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808134</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808134</v>
+        <v>44.07672084250336</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
-        <v>137.126388340862</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>137.5748216925009</v>
@@ -24847,7 +24847,7 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169934</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
@@ -24856,7 +24856,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.8345819583771</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
         <v>207.5440020263834</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637829.2183801858</v>
+        <v>637829.2183801857</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637829.2183801858</v>
+        <v>637829.2183801857</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710689</v>
-      </c>
       <c r="E2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016476</v>
       </c>
       <c r="G2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925194</v>
       </c>
       <c r="H2" t="n">
-        <v>748956.582992519</v>
+        <v>748956.5829925195</v>
       </c>
       <c r="I2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925191</v>
       </c>
       <c r="J2" t="n">
         <v>748956.5829925193</v>
       </c>
       <c r="K2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925194</v>
       </c>
       <c r="L2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="N2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569106</v>
+        <v>8832.521060569145</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.270016921102069e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600751</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="G4" t="n">
+        <v>11549.65615884676</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11549.65615884676</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11549.65615884679</v>
+      </c>
+      <c r="J4" t="n">
         <v>11549.65615884681</v>
       </c>
-      <c r="H4" t="n">
-        <v>11549.6561588468</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11549.65615884681</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11549.65615884682</v>
-      </c>
       <c r="K4" t="n">
-        <v>11549.6561588468</v>
+        <v>11549.65615884677</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732798</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732803</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501787</v>
@@ -26494,19 +26494,19 @@
         <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501788</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002536</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.32462280602</v>
+        <v>-40754.3246228059</v>
       </c>
       <c r="C6" t="n">
-        <v>549213.554591739</v>
+        <v>549213.5545917387</v>
       </c>
       <c r="D6" t="n">
-        <v>549213.5545917387</v>
+        <v>549213.5545917385</v>
       </c>
       <c r="E6" t="n">
-        <v>117891.1194200268</v>
+        <v>117793.6602940548</v>
       </c>
       <c r="F6" t="n">
-        <v>643051.155896923</v>
+        <v>642953.6967709516</v>
       </c>
       <c r="G6" t="n">
-        <v>635658.9033080855</v>
+        <v>635577.237259721</v>
       </c>
       <c r="H6" t="n">
-        <v>644491.4243686544</v>
+        <v>644409.7583202902</v>
       </c>
       <c r="I6" t="n">
-        <v>644491.4243686546</v>
+        <v>644409.7583202899</v>
       </c>
       <c r="J6" t="n">
-        <v>468068.2051760617</v>
+        <v>467986.5391276971</v>
       </c>
       <c r="K6" t="n">
-        <v>644491.4243686546</v>
+        <v>644409.7583202901</v>
       </c>
       <c r="L6" t="n">
         <v>597433.5445500036</v>
       </c>
       <c r="M6" t="n">
-        <v>517138.041419879</v>
+        <v>517138.0414198788</v>
       </c>
       <c r="N6" t="n">
+        <v>651939.0566537161</v>
+      </c>
+      <c r="O6" t="n">
         <v>651939.056653716</v>
       </c>
-      <c r="O6" t="n">
-        <v>651939.0566537164</v>
-      </c>
       <c r="P6" t="n">
-        <v>651939.0566537159</v>
+        <v>651939.0566537163</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K2" t="n">
         <v>11.04065132571143</v>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,16 +26917,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,16 +27154,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>99.10841501723553</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>90.76584682581944</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>88.56638900509989</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438903</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>218.0097051937367</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,43 +33336,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,43 +33573,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33810,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>586.931733748486</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>133.1477786379278</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541616</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,19 +35811,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>568.8729598603422</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>235.2160519941548</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
         <v>284.317529131315</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058698</v>
+        <v>451.7807101798181</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
@@ -36762,7 +36762,7 @@
         <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O28" t="n">
         <v>247.2780028463143</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758619</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>425.9753597058701</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507405</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758619</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130335</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>269.8956035973785</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>425.9753597058702</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,13 +37470,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953154</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560241</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.424377050466</v>
+        <v>343.3468637082223</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092013</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502434</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>298.8501529445944</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,16 +38184,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
